--- a/data/income_statement/2digits/size/63_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/63_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>63-Information service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>63-Information service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,266 +841,301 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>54575.83573999999</v>
+        <v>58882.99823</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>68633.25356999999</v>
+        <v>75747.32823999999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>104631.10663</v>
+        <v>109205.62412</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>89060.71664</v>
+        <v>94054.3841</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>78577.94252000001</v>
+        <v>84831.51085999999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>92739.61283</v>
+        <v>101930.96009</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>114707.27954</v>
+        <v>127834.18647</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>125176.17827</v>
+        <v>142277.31402</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>148231.82678</v>
+        <v>163666.31978</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>244447.35315</v>
+        <v>270821.20439</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>288994.66995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>324111.83305</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>364342.542</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>49128.28283999999</v>
+        <v>52030.05692</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>61315.83713</v>
+        <v>67462.17056999999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>94921.11955</v>
+        <v>99172.77727999999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>77178.11600999998</v>
+        <v>82037.54464000001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>67037.20885</v>
+        <v>73010.94484</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>78956.88036</v>
+        <v>87531.78728999999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>101020.41511</v>
+        <v>113562.88921</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>111560.42058</v>
+        <v>125411.6187</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>130262.30158</v>
+        <v>143531.4845</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>203610.54022</v>
+        <v>223745.62095</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>244444.81299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>274563.02001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>306068.808</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2033.84177</v>
+        <v>3275.29595</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>2838.9021</v>
+        <v>3462.98163</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>8721.342620000001</v>
+        <v>9022.090620000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>10725.6925</v>
+        <v>10728.44525</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>10733.22675</v>
+        <v>10895.33952</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11730.35458</v>
+        <v>12318.7699</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>11533.91724</v>
+        <v>12045.47816</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>10342.91508</v>
+        <v>12754.62877</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>15631.69229</v>
+        <v>16447.41738</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>37114.62579999999</v>
+        <v>43207.84087</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>37707.45289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>42078.25026000001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>49540.447</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>3413.71113</v>
+        <v>3577.64536</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>4478.51434</v>
+        <v>4822.17604</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>988.64446</v>
+        <v>1010.75622</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1156.90813</v>
+        <v>1288.39421</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>807.50692</v>
+        <v>925.2265</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2052.37789</v>
+        <v>2080.4029</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2152.94719</v>
+        <v>2225.8191</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3272.84261</v>
+        <v>4111.06655</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>2337.83291</v>
+        <v>3687.4179</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3722.18713</v>
+        <v>3867.74257</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>6842.404070000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>7470.56278</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>8733.287</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>719.20878</v>
+        <v>720.1267</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>282.5295</v>
+        <v>428.61978</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1168.87868</v>
+        <v>1230.27868</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>775.21087</v>
+        <v>777.73562</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1772.16049</v>
+        <v>1864.60678</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1490.36396</v>
+        <v>2359.58981</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>707.47771</v>
+        <v>741.66736</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>778.68699</v>
+        <v>1292.60704</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1109.74191</v>
+        <v>1921.82658</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3839.02881</v>
+        <v>3907.50648</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1961.56815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3118.54511</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>6191.298</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>711.51687</v>
+        <v>712.4347899999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>271.50426</v>
+        <v>415.1488600000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>432.11724</v>
+        <v>444.51724</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>733.34487</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1728.47232</v>
+        <v>1820.91861</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>594.2775300000001</v>
+        <v>1462.91024</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>520.29038</v>
+        <v>554.2354799999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>767.1028699999999</v>
+        <v>1281.02292</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>371.25958</v>
+        <v>1183.34425</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2864.8802</v>
+        <v>2933.06884</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1412.20722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2569.06871</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>5502.403</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>2.96925</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>10.50501</v>
+        <v>12.95069</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>734.41079</v>
+        <v>783.41079</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>4.403659999999999</v>
+        <v>6.92841</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>27.42017</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>894.13713</v>
+        <v>894.73027</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>182.48152</v>
@@ -1211,16 +1147,21 @@
         <v>734.4823299999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>949.73063</v>
+        <v>950.01966</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>377.93261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>378.04808</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>549.809</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>4.722659999999999</v>
@@ -1241,7 +1182,7 @@
         <v>1.9493</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4.70581</v>
+        <v>4.950360000000001</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>5.43012</v>
@@ -1255,209 +1196,239 @@
       <c r="M12" s="48" t="n">
         <v>171.42832</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>139.086</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>53856.62695999999</v>
+        <v>58162.87153</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>68350.72407</v>
+        <v>75318.70846000001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>103462.22795</v>
+        <v>107975.34544</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>88285.50577000002</v>
+        <v>93276.64847999999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>76805.78203</v>
+        <v>82966.90407999999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>91249.24887000001</v>
+        <v>99571.37028</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>113999.80183</v>
+        <v>127092.51911</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>124397.49128</v>
+        <v>140984.70698</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>147122.08487</v>
+        <v>161744.4932</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>240608.32434</v>
+        <v>266913.69791</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>287033.1018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>320993.28794</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>358151.244</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>35531.89596</v>
+        <v>38928.92627</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>44055.07019</v>
+        <v>48428.30257</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>68206.11576</v>
+        <v>72415.48136000001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>62297.403</v>
+        <v>64112.49859999999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>45468.78994</v>
+        <v>51993.22364</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>55278.54599</v>
+        <v>61809.63653</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>75030.51955</v>
+        <v>80651.22762000001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>75451.97765999999</v>
+        <v>88107.32008</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>91432.02983</v>
+        <v>111925.56556</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>144926.08629</v>
+        <v>169448.47321</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>188176.62528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>215427.60817</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>224775.799</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>620.5986800000001</v>
+        <v>1156.06792</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1694.92816</v>
+        <v>2289.32276</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2347.0675</v>
+        <v>2347.24691</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>3844.30366</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1927.88591</v>
+        <v>2326.78261</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3387.24265</v>
+        <v>3618.44707</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5225.3594</v>
+        <v>5547.42424</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3755.90984</v>
+        <v>4605.01857</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2252.61867</v>
+        <v>2358.27892</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>4722.551030000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4492.295889999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6976.82404</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6352.545</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>14194.81286</v>
+        <v>15352.06385</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>15808.16193</v>
+        <v>16869.47356</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>32002.18938</v>
+        <v>32379.35449</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>19436.25373</v>
+        <v>19913.4394</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>9886.21884</v>
+        <v>10270.21299</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>12883.74232</v>
+        <v>14940.32302</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>19095.76802</v>
+        <v>20075.99702</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>19104.76924</v>
+        <v>20740.69844</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>20345.18125</v>
+        <v>22723.25622</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>33906.16131</v>
+        <v>34073.09861</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>60149.99073</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>62610.9916</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>54123.498</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>20705.94783</v>
+        <v>22348.97791</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>26551.9801</v>
+        <v>29269.50625</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>33825.96151</v>
+        <v>37657.98259000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>38987.72894</v>
+        <v>40325.63887</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>33522.21242</v>
+        <v>39192.97724</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>38352.36804</v>
+        <v>42595.67346</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>50589.47303</v>
+        <v>54907.88726</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>52203.17472</v>
+        <v>62045.43394</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>68326.92215000001</v>
+        <v>86336.72266</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>105423.86049</v>
+        <v>129779.31011</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>122996.94267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>145098.66541</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>163482.471</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>10.53659</v>
+        <v>71.81658999999999</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>0</v>
@@ -1469,7 +1440,7 @@
         <v>29.11667</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>132.47277</v>
+        <v>203.2508</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>655.19298</v>
@@ -1478,7 +1449,7 @@
         <v>119.9191</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>388.12386</v>
+        <v>716.16913</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>507.30776</v>
@@ -1487,97 +1458,112 @@
         <v>873.51346</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>537.39599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>741.12712</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>817.285</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>18324.731</v>
+        <v>19233.94526</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>24295.65388</v>
+        <v>26890.40589</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>35256.11219</v>
+        <v>35559.86408</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>25988.10277</v>
+        <v>29164.14988</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>31336.99209</v>
+        <v>30973.68044</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>35970.70288</v>
+        <v>37761.73375</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>38969.28228</v>
+        <v>46441.29149</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>48945.51362000001</v>
+        <v>52877.3869</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>55690.05503999999</v>
+        <v>49818.92764</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>95682.23805</v>
+        <v>97465.22469999999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>98856.47652000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>105565.67977</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>133375.445</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>18570.54927</v>
+        <v>20027.34425</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>26453.72591</v>
+        <v>29210.25864</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>35195.14399</v>
+        <v>41808.31058</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>31062.19894</v>
+        <v>37047.64151</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>38281.0966</v>
+        <v>46592.72731</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>39464.41083</v>
+        <v>72579.34832999999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>49949.47993</v>
+        <v>71527.97068000001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>55366.82532</v>
+        <v>61460.18211</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>65310.50007</v>
+        <v>77593.34309000001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>97256.75555000002</v>
+        <v>105736.85487</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>151319.06994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>162145.27989</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>123915.396</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>86.38199</v>
+        <v>130.58007</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>579.07523</v>
+        <v>583.69435</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>3594.43454</v>
@@ -1586,202 +1572,227 @@
         <v>1858.1993</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1532.18273</v>
+        <v>1538.13084</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1244.79523</v>
+        <v>1350.31319</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1408.29316</v>
+        <v>1567.05814</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>103.48731</v>
+        <v>445.55212</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1094.82852</v>
+        <v>1452.54885</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>690.35209</v>
+        <v>705.68809</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4617.600060000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5015.742139999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2935.397</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2547.17885</v>
+        <v>2581.9133</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4726.9173</v>
+        <v>4832.265179999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>4632.23825</v>
+        <v>4749.34091</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>5812.668650000001</v>
+        <v>6977.6425</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>4385.183389999999</v>
+        <v>8530.607019999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>5272.745370000001</v>
+        <v>8243.76319</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>6541.447109999999</v>
+        <v>7233.66143</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>8528.166039999998</v>
+        <v>8963.201060000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>11350.72895</v>
+        <v>15719.9334</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>19546.66802</v>
+        <v>20265.53523</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>14826.50575</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17928.32246</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>18024.972</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>15936.98843</v>
+        <v>17314.85088</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>21147.73338</v>
+        <v>23794.29911</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>26968.4712</v>
+        <v>33464.53513</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>23391.33099</v>
+        <v>28211.79971</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>32363.73048</v>
+        <v>36523.98945</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>32946.87023</v>
+        <v>62985.27195</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>41999.73966</v>
+        <v>62727.25111</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>46735.17197</v>
+        <v>52051.42893</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>52864.9426</v>
+        <v>60420.86084</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>77019.73544</v>
+        <v>84765.63155000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>131874.96413</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>139201.21529</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>102955.027</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-245.81827</v>
+        <v>-793.39899</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-2158.07203</v>
+        <v>-2319.85275</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>60.96819999999995</v>
+        <v>-6248.4465</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-5074.09617</v>
+        <v>-7883.49163</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-6944.10451</v>
+        <v>-15619.04687</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-3493.70795</v>
+        <v>-34817.61458</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-10980.19765</v>
+        <v>-25086.67919</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-6421.311699999999</v>
+        <v>-8582.795209999998</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-9620.445029999999</v>
+        <v>-27774.41545</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-1574.5175</v>
+        <v>-8271.63017</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-52462.59342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-56579.60012</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9460.049000000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>759.53989</v>
+        <v>1468.50048</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1003.71526</v>
+        <v>1396.54607</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2305.30904</v>
+        <v>2711.42611</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1425.28408</v>
+        <v>2334.64919</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1441.37747</v>
+        <v>2826.42156</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1455.89638</v>
+        <v>4722.06329</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2480.47339</v>
+        <v>10903.88342</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2475.58177</v>
+        <v>5217.69803</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3224.85187</v>
+        <v>7890.12854</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>13066.94539</v>
+        <v>45653.30177</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>9345.704760000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>24551.7964</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>17547.133</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>16.33062</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>10.68447</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>27.90307</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>7.97885</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>54.89212000000001</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>0</v>
@@ -1793,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>69.05122</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>4.65063</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>0</v>
@@ -1835,61 +1851,71 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>10576.91816</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>8834.860490000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>123.3853</v>
+        <v>160.62333</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>121.31872</v>
+        <v>241.67366</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1161.66265</v>
+        <v>1201.34376</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>277.07826</v>
+        <v>329.99665</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>231.63553</v>
+        <v>568.74659</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>353.22275</v>
+        <v>593.39106</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>438.59119</v>
+        <v>538.13876</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>475.56938</v>
+        <v>677.0400100000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>384.58136</v>
+        <v>713.6209399999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1136.29874</v>
+        <v>1873.35246</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2265.7699</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3638.90048</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1250.518</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>188.61341</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>88.46275</v>
+        <v>132.71513</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>175.28981</v>
@@ -1898,7 +1924,7 @@
         <v>221.41984</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>368.50373</v>
+        <v>371.03048</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>138.94544</v>
@@ -1907,46 +1933,51 @@
         <v>272.5558</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>265.68218</v>
+        <v>380.43094</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>132.07414</v>
+        <v>136.04035</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>341.1448</v>
+        <v>342.67866</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>39.81642</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>516.986</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5.30421</v>
+        <v>151.94321</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2.15107</v>
+        <v>16.21341</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>4.9706</v>
+        <v>36.77848</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>20.678</v>
+        <v>142.00812</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>37.39939</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2.21938</v>
+        <v>40.54139</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>11.37245</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>12.78171</v>
+        <v>997.21397</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>20.187</v>
@@ -1955,19 +1986,24 @@
         <v>44.99074</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>87.77371000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>135.56921</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>13.845</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>18.82329</v>
+        <v>18.8242</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3.14114</v>
+        <v>5.974159999999999</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>22.47476</v>
@@ -1976,16 +2012,16 @@
         <v>9.685930000000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>7.56026</v>
+        <v>7.751639999999999</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>25.67499</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>19.24729</v>
+        <v>19.34334</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>13.56983</v>
+        <v>123.79499</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>13.90585</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>57.13708999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>54.31</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>236.97394</v>
+        <v>756.0204299999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>703.0571600000001</v>
+        <v>900.11695</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>724.5668099999999</v>
+        <v>975.4981899999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>195.81182</v>
+        <v>845.66761</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>536.56646</v>
+        <v>1514.80783</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>550.86954</v>
+        <v>3231.52258</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1174.86372</v>
+        <v>8729.322540000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1193.69087</v>
+        <v>2230.74467</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2023.92953</v>
+        <v>4464.91935</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>10449.86672</v>
+        <v>31428.93176</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4456.95421</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>9380.819800000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>12613.133</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0.95896</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>15.606</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,140 +2164,160 @@
       <c r="M34" s="48" t="n">
         <v>0.00293</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>11.745</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>170.10912</v>
+        <v>176.14528</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>85.58442000000001</v>
+        <v>89.16829</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>216.34441</v>
+        <v>272.13804</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>700.61023</v>
+        <v>773.2415599999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>259.7121</v>
+        <v>271.79351</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>300.85605</v>
+        <v>607.8796</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>563.8429400000001</v>
+        <v>1333.15053</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>514.06073</v>
+        <v>808.24638</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>648.9303200000001</v>
+        <v>2490.21138</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>958.05378</v>
+        <v>1249.83938</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2367.29154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2393.73102</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2537.99</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>377.19478</v>
+        <v>994.76783</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>538.88301</v>
+        <v>834.4348</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1441.20538</v>
+        <v>2163.42426</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>463.07839</v>
+        <v>1086.69207</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>719.67809</v>
+        <v>3273.93961</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>630.8837900000001</v>
+        <v>2863.0388</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1361.3982</v>
+        <v>5932.36204</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4466.38798</v>
+        <v>7152.294</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4145.11252</v>
+        <v>6998.5363</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>9777.833990000001</v>
+        <v>33679.69728</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5390.399780000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>21380.38668</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>25252.776</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>34.9065</v>
+        <v>35.74125</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>10.64738</v>
+        <v>11.36712</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>43.12910000000001</v>
+        <v>43.84310000000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>51.12569999999999</v>
+        <v>51.1887</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>40.8763</v>
+        <v>44.8763</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>58.63030000000001</v>
+        <v>59.39732</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>62.26975</v>
+        <v>63.45563000000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2194.81221</v>
+        <v>2196.02448</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1735.16159</v>
+        <v>1749.80849</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1209.14015</v>
+        <v>1209.19111</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>148.12104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>148.23716</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3208.796</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>26.12512</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>27.6032</v>
+        <v>36.22356</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>275.65916</v>
+        <v>422.682</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>47.31511999999999</v>
+        <v>48.74652</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>12.42774</v>
@@ -2255,25 +2326,30 @@
         <v>49.23826</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>174.36992</v>
+        <v>239.09136</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>118.97675</v>
+        <v>1727.73454</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>35.81568</v>
+        <v>205.12835</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>110.96128</v>
+        <v>146.33097</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>294.84776</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>127.475</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2288,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1.575</v>
+        <v>1.57794</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0.08514000000000001</v>
@@ -2297,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>5.710100000000001</v>
+        <v>30.7101</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0</v>
@@ -2306,55 +2382,65 @@
         <v>1.07853</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1.1343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>12.61465</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3.153</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>263.92247</v>
+        <v>809.7096599999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>471.80234</v>
+        <v>721.85749</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>722.50236</v>
+        <v>1296.90729</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>287.88915</v>
+        <v>666.4916999999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>612.0816699999999</v>
+        <v>1142.02566</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>470.98505</v>
+        <v>2702.373</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>931.2140800000001</v>
+        <v>5436.27054</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2122.6398</v>
+        <v>3173.55369</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2063.93251</v>
+        <v>4733.359</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>8344.535910000001</v>
+        <v>32127.81015</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4738.04359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>20716.434</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>18912.358</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1.853</v>
+        <v>7.029</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.48236</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>49.90533</v>
+        <v>115.68044</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>22.17831</v>
+        <v>58.33485</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>396.80229</v>
+        <v>396.8794</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>76.74842</v>
+        <v>320.26515</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>48.14744</v>
+        <v>2068.46203</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>51.94504</v>
+        <v>51.94508</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>193.54387</v>
+        <v>193.54393</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>24.24912</v>
+        <v>24.27119</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>305.60391</v>
+        <v>305.64163</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>75.56932</v>
+        <v>158.73772</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>208.25309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>208.25311</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3000.994</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>736.4038</v>
+        <v>810.58741</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>489.8546</v>
+        <v>1070.77189</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>742.6290300000001</v>
+        <v>1253.93724</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>629.37054</v>
+        <v>1508.88458</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>613.50225</v>
+        <v>1646.26341</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>787.5588299999999</v>
+        <v>1266.141</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>726.8285100000001</v>
+        <v>1533.1829</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>777.3267499999999</v>
+        <v>1568.64903</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1232.97254</v>
+        <v>2358.33164</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3006.67035</v>
+        <v>4623.065769999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2747.18828</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4919.69307</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5106.993</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>733.27271</v>
+        <v>807.45632</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>488.13278</v>
+        <v>1069.05007</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>741.2968499999999</v>
+        <v>1252.60506</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>564.02338</v>
+        <v>1443.53742</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>606.25937</v>
+        <v>1635.71004</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>779.92648</v>
+        <v>1255.19816</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>719.30879</v>
+        <v>1525.66318</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>768.01492</v>
+        <v>1559.26831</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1220.79533</v>
+        <v>2312.97458</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2944.67604</v>
+        <v>4542.44929</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2624.4675</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4796.97229</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5043.359</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3.131089999999999</v>
@@ -2561,115 +2672,130 @@
         <v>65.34716</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>7.24288</v>
+        <v>10.55337</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>7.632350000000001</v>
+        <v>10.94284</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>7.51972</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>9.31183</v>
+        <v>9.380720000000002</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>12.17721</v>
+        <v>45.35706</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>61.99431</v>
+        <v>80.61648</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>122.72078</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>63.634</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-599.8769599999999</v>
+        <v>-1130.25375</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-2183.09438</v>
+        <v>-2828.51337</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>182.4428300000001</v>
+        <v>-6954.38189</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-4741.26102</v>
+        <v>-8144.419089999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-6835.907379999999</v>
+        <v>-17712.82833</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-3456.25419</v>
+        <v>-34224.73109</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-10587.95097</v>
+        <v>-21648.34071</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-9189.444660000001</v>
+        <v>-12086.04021</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-11773.67822</v>
+        <v>-29241.15485</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1292.07645</v>
+        <v>-921.0914500000002</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-51254.47672</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-58327.88347</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-3352.587</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>534.3265499999999</v>
+        <v>579.3849</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1129.68081</v>
+        <v>2763.39336</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>917.7561900000001</v>
+        <v>968.4467099999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>752.44768</v>
+        <v>958.1250200000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>758.06937</v>
+        <v>1154.8134</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>745.66418</v>
+        <v>826.8186899999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>836.48669</v>
+        <v>882.8296800000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2464.99504</v>
+        <v>2717.79703</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1169.40716</v>
+        <v>1506.6099</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2908.73824</v>
+        <v>3131.06828</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2501.8119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2942.49384</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4134.014</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>24.62402</v>
+        <v>54.30471</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>44.58333</v>
@@ -2681,13 +2807,13 @@
         <v>6.475299999999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>12.06107</v>
+        <v>12.37513</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>1.60485</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>0.5815300000000001</v>
+        <v>4.28159</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>7.374989999999999</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>1.03133</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>6.875</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>534.3265499999999</v>
+        <v>578.3849</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1105.05679</v>
+        <v>2709.088650000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>873.17286</v>
+        <v>923.86338</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>749.62428</v>
+        <v>955.30162</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>751.5940700000001</v>
+        <v>1148.3381</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>733.60311</v>
+        <v>814.44356</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>834.8818400000001</v>
+        <v>881.2248300000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2464.41351</v>
+        <v>2713.51544</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1162.03217</v>
+        <v>1499.23491</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2908.73824</v>
+        <v>3131.06828</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2500.78057</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2941.46251</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4127.139</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>543.29688</v>
+        <v>636.50419</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1641.98514</v>
+        <v>1726.04193</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>11931.19832</v>
+        <v>12269.392</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>930.3209099999999</v>
+        <v>1263.50174</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2262.90016</v>
+        <v>2605.42134</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2301.00577</v>
+        <v>3214.58672</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1765.00177</v>
+        <v>1820.60944</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>5451.75949</v>
+        <v>5688.011759999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2142.29421</v>
+        <v>2523.5138</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>8296.323469999999</v>
+        <v>8825.65898</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>10979.25759</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>12163.74733</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>10591.106</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>7.4375</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>51.646</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>11.63517</v>
@@ -2828,190 +2974,213 @@
         <v>283.25619</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>26.33775</v>
+        <v>27.25926</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>53.47248</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>174.37573</v>
+        <v>185.93053</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>48.72796</v>
+        <v>59.91059</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>31.21672</v>
+        <v>44.01017999999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>66.58117</v>
+        <v>71.08314999999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>356.04963</v>
+        <v>586.59583</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>368.93111</v>
+        <v>457.63174</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>666.9803199999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>678.3172999999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>734.739</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>524.22421</v>
+        <v>617.43152</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1341.47045</v>
+        <v>1425.52724</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>11904.86057</v>
+        <v>12242.13274</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>876.8484299999999</v>
+        <v>1210.02926</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2088.52443</v>
+        <v>2419.49081</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2251.67781</v>
+        <v>3154.07613</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1644.83919</v>
+        <v>1687.6534</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>5385.17832</v>
+        <v>5616.92861</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1758.7262</v>
+        <v>1909.39959</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7911.158820000001</v>
+        <v>8351.7937</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>10312.27727</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>11485.43003</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>9804.721</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-608.84729</v>
+        <v>-1187.37304</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-2695.39871</v>
+        <v>-1791.16194</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-10830.9993</v>
+        <v>-18255.32718</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-4919.13425</v>
+        <v>-8449.79581</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-8340.738170000001</v>
+        <v>-19163.43627</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-5011.59578</v>
+        <v>-36612.49912</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-11516.46605</v>
+        <v>-22586.12047</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-12176.20911</v>
+        <v>-15056.25494</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-12746.56527</v>
+        <v>-30258.05875</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-6679.661679999999</v>
+        <v>-6615.682150000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-59731.92241</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-67549.13695999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-9809.679</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>703.1719899999999</v>
+        <v>716.98726</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1043.39506</v>
+        <v>1169.08487</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1502.76639</v>
+        <v>1571.25368</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1081.24062</v>
+        <v>1185.45279</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1161.56121</v>
+        <v>1399.27494</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1461.98075</v>
+        <v>1701.46656</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1640.04522</v>
+        <v>2279.00341</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1755.39883</v>
+        <v>2110.55324</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1940.06427</v>
+        <v>2200.19634</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3994.587399999999</v>
+        <v>5096.612700000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>4400.093</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>5238.44807</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>6927.971</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1312.01928</v>
+        <v>-1904.3603</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-3738.79377</v>
+        <v>-2960.24681</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-12333.76569</v>
+        <v>-19826.58086</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-6000.374869999999</v>
+        <v>-9635.248600000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-9502.299379999999</v>
+        <v>-20562.71121</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-6473.57653</v>
+        <v>-38313.96568</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-13156.51127</v>
+        <v>-24865.12388</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-13931.60794</v>
+        <v>-17166.80818</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-14686.62954</v>
+        <v>-32458.25509</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-10674.24908</v>
+        <v>-11712.29485</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-64132.01541</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-72787.58503</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-16737.65</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>584</v>
+        <v>623</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>630</v>
+        <v>693</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>727</v>
+        <v>782</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>789</v>
+        <v>842</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>945</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>